--- a/spliced/walkingToRunning/2023-04-03_16-56-59/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-56-59/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8473980133446053</v>
+        <v>0.1481355747003131</v>
       </c>
       <c r="B2" t="n">
-        <v>1.588083844222318</v>
+        <v>-0.5275314320756641</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.983019445579084</v>
+        <v>-1.595921289858394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2863327055701405</v>
+        <v>0.8970806586181024</v>
       </c>
       <c r="B3" t="n">
-        <v>1.038549561151037</v>
+        <v>-2.253284974872135</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.314130942234816</v>
+        <v>-2.632813992924737</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4185732899536042</v>
+        <v>3.44800701316113</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6667862044383949</v>
+        <v>-1.11263772954487</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.038517436744028</v>
+        <v>-4.982394183493419</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5196925473462823</v>
+        <v>-0.06218727720976736</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.09992815347398293</v>
+        <v>0.8519693432053494</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.919704219433651</v>
+        <v>-3.113853278584423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1898565553616291</v>
+        <v>-5.216508371043581</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09156009195987508</v>
+        <v>-1.343549091778454</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5371766794102246</v>
+        <v>3.495817017180781</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.5596155655126746</v>
+        <v>-5.247863911833437</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06378233276735518</v>
+        <v>3.879994811812087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9416808429813083</v>
+        <v>4.198587553663369</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.9283114031971309</v>
+        <v>-3.767358408548382</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4325946389224464</v>
+        <v>6.815083000828341</v>
       </c>
       <c r="C8" t="n">
-        <v>1.973001805899651</v>
+        <v>0.4525070901939874</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.152326452170372</v>
+        <v>1.195290473119145</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.05192710712786075</v>
+        <v>-1.12244814540705</v>
       </c>
       <c r="C9" t="n">
-        <v>1.699892592055635</v>
+        <v>-3.771863303259405</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.963804200369645</v>
+        <v>4.371577180492927</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.04299226902542437</v>
+        <v>-3.279605823973685</v>
       </c>
       <c r="C10" t="n">
-        <v>2.146974648480644</v>
+        <v>-4.797551259944596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.5794400816578483</v>
+        <v>0.8983272033211789</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4982764087422444</v>
+        <v>1.015922405332796</v>
       </c>
       <c r="C11" t="n">
-        <v>2.508258232271478</v>
+        <v>-5.503626271692188</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1480714187260106</v>
+        <v>-3.768744276456209</v>
       </c>
       <c r="B12" t="n">
-        <v>1.309333065495433</v>
+        <v>1.106249593939454</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4383183037423184</v>
+        <v>3.618037942816487</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1481355747003131</v>
+        <v>-5.589900377533165</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.5275314320756641</v>
+        <v>3.503953431913461</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.595921289858394</v>
+        <v>6.05607688553742</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8970806586181024</v>
+        <v>-2.11142427696607</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.253284974872135</v>
+        <v>9.510962799581424</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.632813992924737</v>
+        <v>-0.04490738020751496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.44800701316113</v>
+        <v>0.3853269297416066</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.11263772954487</v>
+        <v>-2.830002902065919</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.982394183493419</v>
+        <v>-0.4395293002041412</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.06218727720976736</v>
+        <v>7.810094511321666</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8519693432053494</v>
+        <v>-5.127505102706861</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.113853278584423</v>
+        <v>-1.701906724125914</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-5.216508371043581</v>
+        <v>4.436884702500196</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.343549091778454</v>
+        <v>-6.79071483312473</v>
       </c>
       <c r="C17" t="n">
-        <v>3.495817017180781</v>
+        <v>-0.1620084203350239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-5.247863911833437</v>
+        <v>-0.8537680622172118</v>
       </c>
       <c r="B18" t="n">
-        <v>3.879994811812087</v>
+        <v>-3.271142317050352</v>
       </c>
       <c r="C18" t="n">
-        <v>4.198587553663369</v>
+        <v>3.793036780432373</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-3.767358408548382</v>
+        <v>-7.225753661849682</v>
       </c>
       <c r="B19" t="n">
-        <v>6.815083000828341</v>
+        <v>1.326318728362095</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4525070901939874</v>
+        <v>8.623776784117876</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.195290473119145</v>
+        <v>3.725271386937927</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.12244814540705</v>
+        <v>3.283059017820457</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.771863303259405</v>
+        <v>-3.099974366226723</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.371577180492927</v>
+        <v>2.260886770268454</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.279605823973685</v>
+        <v>-3.733322253401921</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.797551259944596</v>
+        <v>0.4708228362480379</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10.02548202544597</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.10485092133122</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5539246020516877</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-2.205630293691351</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.242692031161299</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.271664639886122</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-2.934371616203759</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8867856582421496</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.5782981265278011</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-3.666905725004196</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.9611553521678435</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.932546598124879</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.07597643337871512</v>
+      </c>
+      <c r="B26" t="n">
+        <v>15.43764277153591</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.051599523783981</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.9658543077439407</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-2.044685548512497</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.529194889268377</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4.105489831320192</v>
+      </c>
+      <c r="B28" t="n">
+        <v>13.38752136726634</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-6.598481021626331</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-1.887021554078156</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.322081098381812</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.926029883130062</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-4.947177827046182</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.337713633454262</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.887203427509456</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-5.072363108240451</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.134192296503722</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.107403220930567</v>
       </c>
     </row>
   </sheetData>
